--- a/data/trans_camb/P25A_7_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,26</t>
+          <t>-6,13; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,0</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 24,61</t>
+          <t>-6,67; 18,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 29,74</t>
+          <t>-13,1; 13,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 13,2</t>
+          <t>-12,36; 14,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 15,56</t>
+          <t>-9,69; 19,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 10,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 6,01</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 14,9</t>
         </is>
       </c>
     </row>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>131,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>134,24%</t>
+          <t>171,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>176,79%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>117,44%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>61,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>81,81%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-78,05; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,26; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 1124,99</t>
+          <t>-87,31; 609,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,21; 1334,16</t>
+          <t>-83,38; 843,36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-88,91; 309,81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-61,34; 674,42</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,05</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 9,83</t>
+          <t>-13,98; 10,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 30,08</t>
+          <t>-6,42; 43,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 8,15</t>
+          <t>-6,51; 44,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 7,57</t>
+          <t>-12,74; 12,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 6,38</t>
+          <t>-10,62; 13,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 16,05</t>
+          <t>-6,15; 21,21</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 7,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 25,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 28,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>-18,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>165,66%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>116,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-8,33%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>55,08%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81,93%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 469,12</t>
+          <t>-85,08; 340,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 1338,45</t>
+          <t>-63,95; 1583,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 121,34</t>
+          <t>-58,09; 1260,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 110,45</t>
+          <t>-72,15; 194,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,25; 110,48</t>
+          <t>-60,02; 218,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 255,32</t>
+          <t>-47,28; 322,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-61,64; 115,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-40,76; 328,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 374,49</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,37</t>
+          <t>-12,6; 7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,66</t>
+          <t>-9,16; 11,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,22</t>
+          <t>-10,27; 8,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 12,83</t>
+          <t>-7,65; 7,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 4,49</t>
+          <t>-3,53; 14,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 7,64</t>
+          <t>-0,47; 17,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 5,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 10,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 11,58</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48,31%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 224,76</t>
+          <t>-100,0; 211,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 267,33</t>
+          <t>-80,18; 297,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,7; 83,61</t>
+          <t>-84,19; 215,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 182,97</t>
+          <t>-57,68; 152,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 73,11</t>
+          <t>-31,74; 261,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 126,75</t>
+          <t>-12,98; 310,89</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; 96,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-24,25; 179,67</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; 191,81</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 9,98</t>
+          <t>-7,55; 11,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 11,66</t>
+          <t>-5,9; 14,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 7,79</t>
+          <t>-1,55; 20,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 12,04</t>
+          <t>-10,54; 10,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 6,45</t>
+          <t>-6,61; 17,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,95</t>
+          <t>-7,55; 14,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 8,38</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 10,78</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 14,53</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 158,94</t>
+          <t>-57,9; 233,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 202,7</t>
+          <t>-50,11; 277,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 47,67</t>
+          <t>-14,6; 396,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 70,68</t>
+          <t>-45,55; 78,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 50,07</t>
+          <t>-29,6; 132,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 65,37</t>
+          <t>-30,22; 107,22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-38,54; 80,16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-22,32; 93,85</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 138,06</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 3,93</t>
+          <t>-17,3; 7,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,25</t>
+          <t>-15,66; 9,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 9,06</t>
+          <t>-15,47; 11,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 4,44</t>
+          <t>-13,65; 21,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,07</t>
+          <t>-19,51; 14,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 1,9</t>
+          <t>-8,4; 28,38</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 9,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 7,56</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 15,67</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-30,5%</t>
+          <t>-29,59%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>-13,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,76%</t>
+          <t>-10,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-23,44%</t>
+          <t>33,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,3%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 39,69</t>
+          <t>-71,28; 63,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 38,56</t>
+          <t>-68,28; 101,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 35,32</t>
+          <t>-63,95; 108,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 16,55</t>
+          <t>-37,76; 113,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 21,11</t>
+          <t>-55,06; 78,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 8,92</t>
+          <t>-25,97; 163,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-44,68; 56,34</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-47,84; 47,11</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-22,5; 101,2</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 11,9</t>
+          <t>-18,47; 10,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 11,32</t>
+          <t>-19,4; 9,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 10,46</t>
+          <t>-10,18; 22,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 18,45</t>
+          <t>-23,72; 18,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 8,37</t>
+          <t>-18,98; 23,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 13,22</t>
+          <t>-17,99; 29,77</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 9,41</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 12,11</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-11,39; 21,55</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>-26,19%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>-31,83%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-15,68%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-4,4%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 244,14</t>
+          <t>-87,94; 237,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-60,22; 250,89</t>
+          <t>-87,24; 203,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 43,73</t>
+          <t>-53,24; 463,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 74,83</t>
+          <t>-56,91; 78,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 49,7</t>
+          <t>-45,62; 94,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 74,24</t>
+          <t>-47,6; 127,66</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-55,13; 56,86</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-47,66; 69,34</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; 118,36</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,31</t>
+          <t>-6,12; 3,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,89</t>
+          <t>-4,82; 8,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,07</t>
+          <t>-1,19; 14,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,12</t>
+          <t>-5,81; 5,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,84</t>
+          <t>-2,88; 8,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,6</t>
+          <t>0,23; 13,84</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,69</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 6,62</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 11,6</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>41,59%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-5,08%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 48,39</t>
+          <t>-46,95; 47,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 86,23</t>
+          <t>-39,4; 92,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 24,52</t>
+          <t>-11,8; 153,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 42,52</t>
+          <t>-28,64; 36,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 22,65</t>
+          <t>-13,7; 61,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 36,14</t>
+          <t>1,05; 94,29</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 22,09</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 51,25</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 92,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
